--- a/Excel/玩家.xlsx
+++ b/Excel/玩家.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\ActivityProject\ConfigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\SpectraAbyss\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD53C1-60B3-4ACC-9B56-68D44A51903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C94233-C2E9-4560-BA48-22E0B81F1C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,24 +460,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,7 +555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -608,7 +608,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -851,7 +851,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -878,7 +878,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
